--- a/biology/Zoologie/Hucho/Hucho.xlsx
+++ b/biology/Zoologie/Hucho/Hucho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hucho est un genre de poissons de la famille des Salmonidae. Plusieurs des espèces du genre sont appelées saumons, un terme vernaculaire désignant plusieurs salmonidés, au même titre que certaines espèces des genres Salmo et Oncorhynchus.
 Le genre comprend des espèces dulçaquicoles, ainsi que des migrateurs anadromes. Il se répartit dans les affluents du Danube, dans les cours d'eau et le long des côtes de l'Eurasie.
@@ -514,14 +526,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 avril 2024) :
 Hucho bleekeri Kimura, 1934
 Hucho hucho (Linnaeus, 1758), le Huchon
 Hucho ishikawae Mori, 1928
 Hucho taimen (Pallas, 1773), le Saumon de Sibérie, Taimen, ou Taimen de Sibérie
-Selon FishBase                                           (29 janv. 2015)[2] :
+Selon FishBase                                           (29 janv. 2015) :
 Hucho bleekeri
 Hucho hucho
 Hucho ishikawae
